--- a/template/b2c/$A1_2.xlsx
+++ b/template/b2c/$A1_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="19440" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Groups</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>13.  /НЕ ЗАЧИТЫВАТЬ/ Затрудняюсь ответить</t>
+  </si>
+  <si>
+    <t>14. A1_2_dummy</t>
+  </si>
+  <si>
+    <t>A1_2_dummy(1)</t>
   </si>
 </sst>
 </file>
@@ -432,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -449,14 +455,18 @@
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -496,8 +506,11 @@
       <c r="M2" t="s">
         <v>27</v>
       </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -537,8 +550,11 @@
       <c r="M3" t="s">
         <v>14</v>
       </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>1</v>
       </c>
